--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H2">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.3442741098935</v>
+        <v>4.344454</v>
       </c>
       <c r="N2">
-        <v>4.3442741098935</v>
+        <v>8.688908</v>
       </c>
       <c r="O2">
-        <v>0.07459182210593297</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P2">
-        <v>0.07459182210593297</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q2">
-        <v>0.700983907797009</v>
+        <v>1.009012474862</v>
       </c>
       <c r="R2">
-        <v>0.700983907797009</v>
+        <v>6.054074849171999</v>
       </c>
       <c r="S2">
-        <v>0.07459182210593297</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="T2">
-        <v>0.07459182210593297</v>
+        <v>0.05740743684517152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H3">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.9104196133373</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N3">
-        <v>22.9104196133373</v>
+        <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3933752569338282</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P3">
-        <v>0.3933752569338282</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q3">
-        <v>3.696782261794279</v>
+        <v>5.617053746609666</v>
       </c>
       <c r="R3">
-        <v>3.696782261794279</v>
+        <v>50.553483719487</v>
       </c>
       <c r="S3">
-        <v>0.3933752569338282</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="T3">
-        <v>0.3933752569338282</v>
+        <v>0.4793706711978917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H4">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.743134322622252</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N4">
-        <v>0.743134322622252</v>
+        <v>0.430342</v>
       </c>
       <c r="O4">
-        <v>0.01275972505225066</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P4">
-        <v>0.01275972505225066</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q4">
-        <v>0.119910758002929</v>
+        <v>0.03331607350866667</v>
       </c>
       <c r="R4">
-        <v>0.119910758002929</v>
+        <v>0.2998446615779999</v>
       </c>
       <c r="S4">
-        <v>0.01275972505225066</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="T4">
-        <v>0.01275972505225066</v>
+        <v>0.002843260762667162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H5">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.30518011884588</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N5">
-        <v>4.30518011884588</v>
+        <v>3.215092</v>
       </c>
       <c r="O5">
-        <v>0.07392057255954868</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P5">
-        <v>0.07392057255954868</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q5">
-        <v>0.6946757748563337</v>
+        <v>0.2489049207586667</v>
       </c>
       <c r="R5">
-        <v>0.6946757748563337</v>
+        <v>2.240144286828</v>
       </c>
       <c r="S5">
-        <v>0.07392057255954868</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="T5">
-        <v>0.07392057255954868</v>
+        <v>0.0212420468649704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.161358121072658</v>
+        <v>0.232253</v>
       </c>
       <c r="H6">
-        <v>0.161358121072658</v>
+        <v>0.6967589999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +803,96 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.9376137592956</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N6">
-        <v>25.9376137592956</v>
+        <v>14.125759</v>
       </c>
       <c r="O6">
-        <v>0.4453526233484394</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P6">
-        <v>0.4453526233484394</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q6">
-        <v>4.18524462130826</v>
+        <v>1.093583301675667</v>
       </c>
       <c r="R6">
-        <v>4.18524462130826</v>
+        <v>9.842249715081</v>
       </c>
       <c r="S6">
-        <v>0.4453526233484394</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="T6">
-        <v>0.4453526233484394</v>
+        <v>0.09332859982895587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.232253</v>
+      </c>
+      <c r="H7">
+        <v>0.6967589999999999</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>26.1699</v>
+      </c>
+      <c r="N7">
+        <v>52.3398</v>
+      </c>
+      <c r="O7">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P7">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q7">
+        <v>6.078037784699998</v>
+      </c>
+      <c r="R7">
+        <v>36.46822670819999</v>
+      </c>
+      <c r="S7">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="T7">
+        <v>0.3458079845003432</v>
       </c>
     </row>
   </sheetData>
